--- a/Team-Data/2008-09/2-19-2008-09.xlsx
+++ b/Team-Data/2008-09/2-19-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -771,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -798,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -851,13 +918,13 @@
         <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.782</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,7 +933,7 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.483</v>
@@ -878,7 +945,7 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
@@ -887,16 +954,16 @@
         <v>25.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
         <v>22.8</v>
@@ -905,25 +972,25 @@
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>4</v>
@@ -932,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -965,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -986,16 +1053,16 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1129,13 +1196,13 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
@@ -1144,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.434</v>
+        <v>0.444</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1245,61 +1312,61 @@
         <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
         <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="n">
         <v>17</v>
       </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1311,22 +1378,22 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
@@ -1356,10 +1423,10 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
         <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.804</v>
+        <v>0.788</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.2</v>
@@ -1445,43 +1512,43 @@
         <v>41.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1496,25 +1563,25 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1535,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1708,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J9" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R9" t="n">
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V9" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W9" t="n">
         <v>6.4</v>
@@ -2006,31 +2073,31 @@
         <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2048,13 +2115,13 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP9" t="n">
         <v>25</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2063,7 +2130,7 @@
         <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>19</v>
@@ -2078,10 +2145,10 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2418,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2633,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,34 +2944,34 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.8</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2916,19 +2983,19 @@
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,16 +3016,16 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3176,7 +3243,7 @@
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3325,7 +3392,7 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3355,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.482</v>
+        <v>0.474</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.8</v>
@@ -3426,13 +3493,13 @@
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.783</v>
@@ -3441,10 +3508,10 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
@@ -3453,25 +3520,25 @@
         <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3492,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3507,7 +3574,7 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>16</v>
@@ -3537,7 +3604,7 @@
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
@@ -3710,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3865,19 +3932,19 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
         <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>8</v>
@@ -4041,7 +4108,7 @@
         <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
@@ -4793,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4960,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4990,10 +5057,10 @@
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.635</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
@@ -5100,19 +5167,19 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA26" t="n">
         <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,34 +5191,34 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>19</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5181,13 +5248,13 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T28" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
@@ -5464,19 +5531,19 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,19 +5558,19 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5691,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5831,19 +5898,19 @@
         <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC30" t="n">
         <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5852,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>7</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6061,10 +6128,10 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-19-2008-09</t>
+          <t>2009-02-19</t>
         </is>
       </c>
     </row>
